--- a/Table/Datas/CharacterStatusData.xlsx
+++ b/Table/Datas/CharacterStatusData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectH\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA4D506-5B45-41D0-BEE6-206E050620BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741E987B-D467-489A-A879-C1CD515B7AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -43,14 +43,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ATK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEF</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -63,7 +55,27 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>MP</t>
+    <t>PATK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDEF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EATK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDEF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -434,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F8"/>
+  <dimension ref="A2:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -445,10 +457,10 @@
     <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7.375" customWidth="1"/>
     <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,8 +479,17 @@
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -487,48 +508,75 @@
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>101</v>
       </c>
@@ -545,10 +593,19 @@
         <v>120</v>
       </c>
       <c r="F6" s="3">
+        <v>120</v>
+      </c>
+      <c r="G6" s="3">
+        <v>120</v>
+      </c>
+      <c r="H6" s="3">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>102</v>
       </c>
@@ -565,16 +622,28 @@
         <v>200</v>
       </c>
       <c r="F7" s="3">
+        <v>200</v>
+      </c>
+      <c r="G7" s="3">
+        <v>200</v>
+      </c>
+      <c r="H7" s="3">
+        <v>20</v>
+      </c>
+      <c r="I7" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
